--- a/teaching/traditional_assets/database/data/finland/finland_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.187</v>
+        <v>0.03465</v>
       </c>
       <c r="E2">
-        <v>0.323</v>
+        <v>0.0367</v>
       </c>
       <c r="F2">
-        <v>0.23</v>
+        <v>0.307</v>
       </c>
       <c r="G2">
-        <v>0.3113336784424636</v>
+        <v>0.2766843096313322</v>
       </c>
       <c r="H2">
-        <v>0.3091777985404409</v>
+        <v>0.2739596316019488</v>
       </c>
       <c r="I2">
-        <v>0.2867168331381543</v>
+        <v>0.2329177067806144</v>
       </c>
       <c r="J2">
-        <v>0.247037202730872</v>
+        <v>0.1807372119878994</v>
       </c>
       <c r="K2">
-        <v>75.717</v>
+        <v>67.48</v>
       </c>
       <c r="L2">
-        <v>0.2389996464735739</v>
+        <v>0.1820408647750387</v>
       </c>
       <c r="M2">
-        <v>76.96899999999999</v>
+        <v>85.78</v>
       </c>
       <c r="N2">
-        <v>0.04436688321045866</v>
+        <v>0.03745524408348616</v>
       </c>
       <c r="O2">
-        <v>1.016535256283265</v>
+        <v>1.271191464137522</v>
       </c>
       <c r="P2">
-        <v>74.47</v>
+        <v>85.78</v>
       </c>
       <c r="Q2">
-        <v>0.04292639624631808</v>
+        <v>0.03745524408348616</v>
       </c>
       <c r="R2">
-        <v>0.9835307790852781</v>
+        <v>1.271191464137522</v>
       </c>
       <c r="S2">
-        <v>2.499</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.03246761683275085</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>51.467</v>
+        <v>88.23</v>
       </c>
       <c r="V2">
-        <v>0.02966688378688402</v>
+        <v>0.03852501964893896</v>
       </c>
       <c r="W2">
-        <v>0.151197304273014</v>
+        <v>0.06048565121412804</v>
       </c>
       <c r="X2">
-        <v>0.05413038160865238</v>
+        <v>0.04166065338907385</v>
       </c>
       <c r="Y2">
-        <v>0.09706692266436165</v>
+        <v>0.01882499782505419</v>
       </c>
       <c r="Z2">
-        <v>0.3594661876407143</v>
+        <v>0.4279913275535044</v>
       </c>
       <c r="AA2">
-        <v>0.09997411105508403</v>
+        <v>0.06027841506960376</v>
       </c>
       <c r="AB2">
-        <v>0.04991181125274555</v>
+        <v>0.03811553307311122</v>
       </c>
       <c r="AC2">
-        <v>0.05008400488847768</v>
+        <v>0.02216288199649254</v>
       </c>
       <c r="AD2">
-        <v>335.23</v>
+        <v>439.965</v>
       </c>
       <c r="AE2">
-        <v>21.41406763583805</v>
+        <v>0.07333472160596537</v>
       </c>
       <c r="AF2">
-        <v>356.644067635838</v>
+        <v>440.038334721606</v>
       </c>
       <c r="AG2">
-        <v>305.1770676358381</v>
+        <v>351.8083347216059</v>
       </c>
       <c r="AH2">
-        <v>0.1705228255777427</v>
+        <v>0.1611721325297688</v>
       </c>
       <c r="AI2">
-        <v>0.3934974369790158</v>
+        <v>0.4124656902018167</v>
       </c>
       <c r="AJ2">
-        <v>0.1495960835025476</v>
+        <v>0.1331594340934117</v>
       </c>
       <c r="AK2">
-        <v>0.3569835701404472</v>
+        <v>0.3594949350930434</v>
       </c>
       <c r="AL2">
-        <v>8.999000000000001</v>
+        <v>8.936</v>
       </c>
       <c r="AM2">
-        <v>8.301</v>
+        <v>5.978</v>
       </c>
       <c r="AN2">
-        <v>3.7777928034529</v>
+        <v>4.639953174929604</v>
       </c>
       <c r="AO2">
-        <v>9.88654294921658</v>
+        <v>9.655214861235452</v>
       </c>
       <c r="AP2">
-        <v>3.439118604819163</v>
+        <v>3.710236495308064</v>
       </c>
       <c r="AQ2">
-        <v>10.71786531743164</v>
+        <v>14.43275342924055</v>
       </c>
     </row>
     <row r="3">
@@ -728,40 +728,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.6852791878172589</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="H3">
-        <v>0.6852791878172589</v>
+        <v>0.6491228070175439</v>
       </c>
       <c r="I3">
-        <v>0.5126903553299492</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J3">
-        <v>0.357889112307887</v>
+        <v>0.4412121212121212</v>
       </c>
       <c r="K3">
-        <v>5.04</v>
+        <v>8.32</v>
       </c>
       <c r="L3">
-        <v>0.2558375634517767</v>
+        <v>0.3649122807017544</v>
       </c>
       <c r="M3">
-        <v>6.88</v>
+        <v>4.94</v>
       </c>
       <c r="N3">
-        <v>0.06382189239332096</v>
+        <v>0.0306832298136646</v>
       </c>
       <c r="O3">
-        <v>1.365079365079365</v>
+        <v>0.59375</v>
       </c>
       <c r="P3">
-        <v>6.88</v>
+        <v>4.94</v>
       </c>
       <c r="Q3">
-        <v>0.06382189239332096</v>
+        <v>0.0306832298136646</v>
       </c>
       <c r="R3">
-        <v>1.365079365079365</v>
+        <v>0.59375</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,73 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>6.43</v>
+        <v>9.9</v>
       </c>
       <c r="V3">
-        <v>0.05964749536178107</v>
+        <v>0.06149068322981367</v>
       </c>
       <c r="W3">
-        <v>0.3230769230769231</v>
+        <v>0.3924528301886793</v>
       </c>
       <c r="X3">
-        <v>0.04991256607903005</v>
+        <v>0.03736919277800169</v>
       </c>
       <c r="Y3">
-        <v>0.273164356997893</v>
+        <v>0.3550836374106776</v>
       </c>
       <c r="Z3">
-        <v>5.426997245179064</v>
+        <v>3.904109589041096</v>
       </c>
       <c r="AA3">
-        <v>1.942263226574483</v>
+        <v>1.722540473225405</v>
       </c>
       <c r="AB3">
-        <v>0.04991256607903005</v>
+        <v>0.03736025150997663</v>
       </c>
       <c r="AC3">
-        <v>1.892350660495453</v>
+        <v>1.685180221715428</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="AG3">
-        <v>-6.43</v>
+        <v>-9.825000000000001</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.0004656216048424647</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.003558718861209964</v>
       </c>
       <c r="AJ3">
-        <v>-0.06343099536351977</v>
+        <v>-0.06499090458078387</v>
       </c>
       <c r="AK3">
-        <v>-0.4353419092755585</v>
+        <v>-0.8791946308724834</v>
       </c>
       <c r="AL3">
-        <v>0.019</v>
+        <v>0.039</v>
       </c>
       <c r="AM3">
-        <v>-0.179</v>
+        <v>-0.228</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.004573170731707318</v>
       </c>
       <c r="AO3">
-        <v>531.578947368421</v>
+        <v>341.0256410256411</v>
       </c>
       <c r="AP3">
-        <v>-0.4834586466165413</v>
+        <v>-0.5990853658536587</v>
       </c>
       <c r="AQ3">
-        <v>-56.42458100558658</v>
+        <v>-58.33333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -856,46 +856,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.19</v>
+        <v>0.119</v>
       </c>
       <c r="E4">
-        <v>0.308</v>
+        <v>0.167</v>
       </c>
       <c r="G4">
-        <v>0.4753199268738574</v>
+        <v>0.481421647819063</v>
       </c>
       <c r="H4">
-        <v>0.4753199268738574</v>
+        <v>0.481421647819063</v>
       </c>
       <c r="I4">
-        <v>0.5050299343717887</v>
+        <v>0.526015073597396</v>
       </c>
       <c r="J4">
-        <v>0.4029220640042562</v>
+        <v>0.4212976112535451</v>
       </c>
       <c r="K4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L4">
-        <v>0.4021937842778793</v>
+        <v>0.420032310177706</v>
       </c>
       <c r="M4">
-        <v>19.5</v>
+        <v>24.7</v>
       </c>
       <c r="N4">
-        <v>0.03644859813084112</v>
+        <v>0.03101067168863779</v>
       </c>
       <c r="O4">
-        <v>0.8863636363636364</v>
+        <v>0.95</v>
       </c>
       <c r="P4">
-        <v>19.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q4">
-        <v>0.03644859813084112</v>
+        <v>0.03101067168863779</v>
       </c>
       <c r="R4">
-        <v>0.8863636363636364</v>
+        <v>0.95</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,73 +904,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.031</v>
+        <v>0.041</v>
       </c>
       <c r="V4">
-        <v>5.794392523364486e-05</v>
+        <v>5.14752040175769e-05</v>
       </c>
       <c r="W4">
-        <v>0.3363914373088684</v>
+        <v>0.4120443740095087</v>
       </c>
       <c r="X4">
-        <v>0.05020714553369537</v>
+        <v>0.03743520339346405</v>
       </c>
       <c r="Y4">
-        <v>0.2861842917751731</v>
+        <v>0.3746091706160447</v>
       </c>
       <c r="Z4">
-        <v>0.7947310874854699</v>
+        <v>0.9365685182818113</v>
       </c>
       <c r="AA4">
-        <v>0.3202146900979926</v>
+        <v>0.3945740795273994</v>
       </c>
       <c r="AB4">
-        <v>0.04991105642646104</v>
+        <v>0.03736978543513369</v>
       </c>
       <c r="AC4">
-        <v>0.2703036336715315</v>
+        <v>0.3572042940922657</v>
       </c>
       <c r="AD4">
-        <v>2.95</v>
+        <v>2.64</v>
       </c>
       <c r="AE4">
-        <v>3.464312949315798</v>
+        <v>0.07333472160596537</v>
       </c>
       <c r="AF4">
-        <v>6.414312949315798</v>
+        <v>2.713334721605965</v>
       </c>
       <c r="AG4">
-        <v>6.383312949315799</v>
+        <v>2.672334721605965</v>
       </c>
       <c r="AH4">
-        <v>0.01184732799983489</v>
+        <v>0.00339500681948846</v>
       </c>
       <c r="AI4">
-        <v>0.09227326973644399</v>
+        <v>0.03837090602908485</v>
       </c>
       <c r="AJ4">
-        <v>0.01179074566325505</v>
+        <v>0.00334387791656587</v>
       </c>
       <c r="AK4">
-        <v>0.09186828719540285</v>
+        <v>0.03781302446187586</v>
       </c>
       <c r="AL4">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="AM4">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="AN4">
-        <v>0.1034434392313626</v>
+        <v>0.0803041825095057</v>
       </c>
       <c r="AO4">
-        <v>1254.545454545455</v>
+        <v>1160.714285714286</v>
       </c>
       <c r="AP4">
-        <v>0.2238345237855319</v>
+        <v>0.08128774818573278</v>
       </c>
       <c r="AQ4">
-        <v>1254.545454545455</v>
+        <v>1160.714285714286</v>
       </c>
     </row>
     <row r="5">
@@ -990,46 +990,46 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.424</v>
+        <v>0.076</v>
       </c>
       <c r="E5">
-        <v>0.584</v>
+        <v>0.0367</v>
       </c>
       <c r="G5">
-        <v>1.300699300699301</v>
+        <v>1.479338842975207</v>
       </c>
       <c r="H5">
-        <v>1.300699300699301</v>
+        <v>1.479338842975207</v>
       </c>
       <c r="I5">
-        <v>0.916083916083916</v>
+        <v>0.859504132231405</v>
       </c>
       <c r="J5">
-        <v>0.740739729020979</v>
+        <v>0.6842654256599535</v>
       </c>
       <c r="K5">
-        <v>10.4</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="L5">
-        <v>0.7272727272727273</v>
+        <v>0.6793388429752066</v>
       </c>
       <c r="M5">
-        <v>1.93</v>
+        <v>2.64</v>
       </c>
       <c r="N5">
-        <v>0.02095548317046688</v>
+        <v>0.03446475195822455</v>
       </c>
       <c r="O5">
-        <v>0.1855769230769231</v>
+        <v>0.3211678832116788</v>
       </c>
       <c r="P5">
-        <v>1.93</v>
+        <v>2.64</v>
       </c>
       <c r="Q5">
-        <v>0.02095548317046688</v>
+        <v>0.03446475195822455</v>
       </c>
       <c r="R5">
-        <v>0.1855769230769231</v>
+        <v>0.3211678832116788</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1038,67 +1038,73 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0.91</v>
+        <v>13.2</v>
       </c>
       <c r="V5">
-        <v>0.00988056460369164</v>
+        <v>0.1723237597911227</v>
       </c>
       <c r="W5">
-        <v>0.1454545454545454</v>
+        <v>0.1051150895140665</v>
       </c>
       <c r="X5">
-        <v>0.05173464491785545</v>
+        <v>0.03735873610616088</v>
       </c>
       <c r="Y5">
-        <v>0.09371990053668999</v>
+        <v>0.06775635340790563</v>
       </c>
       <c r="Z5">
-        <v>0.1915606162089752</v>
+        <v>0.1438421302900618</v>
       </c>
       <c r="AA5">
-        <v>0.141896558941728</v>
+        <v>0.09842619651076363</v>
       </c>
       <c r="AB5">
-        <v>0.05023515460961311</v>
+        <v>0.03735873610616088</v>
       </c>
       <c r="AC5">
-        <v>0.09166140433211492</v>
+        <v>0.06106746040460276</v>
       </c>
       <c r="AD5">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>6.83</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>5.92</v>
+        <v>-13.2</v>
       </c>
       <c r="AH5">
-        <v>0.06903871424239362</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.08032459132071033</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0603958375841665</v>
+        <v>-0.2082018927444795</v>
       </c>
       <c r="AK5">
-        <v>0.07037565382786495</v>
+        <v>-0.2189054726368159</v>
       </c>
       <c r="AL5">
-        <v>0.173</v>
+        <v>0.117</v>
       </c>
       <c r="AM5">
-        <v>0.173</v>
+        <v>0.117</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>75.72254335260116</v>
+        <v>88.88888888888889</v>
+      </c>
+      <c r="AP5">
+        <v>-1.257142857142857</v>
       </c>
       <c r="AQ5">
-        <v>75.72254335260116</v>
+        <v>88.88888888888889</v>
       </c>
     </row>
     <row r="6">
@@ -1109,7 +1115,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Taaleri Oyj (HLSE:TAALA)</t>
+          <t>CapMan Oyj (HLSE:CAPMAN)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1118,49 +1124,49 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.184</v>
+        <v>0.024</v>
       </c>
       <c r="E6">
-        <v>0.338</v>
+        <v>-0.191</v>
       </c>
       <c r="F6">
-        <v>-0.019</v>
+        <v>0.307</v>
       </c>
       <c r="G6">
-        <v>0.3814180929095354</v>
+        <v>0.2546125461254612</v>
       </c>
       <c r="H6">
-        <v>0.3814180929095354</v>
+        <v>0.2546125461254612</v>
       </c>
       <c r="I6">
-        <v>0.3644602027692839</v>
+        <v>0.2343173431734317</v>
       </c>
       <c r="J6">
-        <v>0.3480773593408804</v>
+        <v>0.1529639204915957</v>
       </c>
       <c r="K6">
-        <v>19.9</v>
+        <v>2.15</v>
       </c>
       <c r="L6">
-        <v>0.2432762836185819</v>
+        <v>0.03966789667896679</v>
       </c>
       <c r="M6">
-        <v>9.66</v>
+        <v>24.9</v>
       </c>
       <c r="N6">
-        <v>0.03613916947250281</v>
+        <v>0.05620767494356659</v>
       </c>
       <c r="O6">
-        <v>0.485427135678392</v>
+        <v>11.58139534883721</v>
       </c>
       <c r="P6">
-        <v>9.66</v>
+        <v>24.9</v>
       </c>
       <c r="Q6">
-        <v>0.03613916947250281</v>
+        <v>0.05620767494356659</v>
       </c>
       <c r="R6">
-        <v>0.485427135678392</v>
+        <v>11.58139534883721</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1169,73 +1175,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.108803611738149</v>
       </c>
       <c r="W6">
-        <v>0.1569400630914826</v>
+        <v>0.01596139569413512</v>
       </c>
       <c r="X6">
-        <v>0.0569109202403759</v>
+        <v>0.04166065338907385</v>
       </c>
       <c r="Y6">
-        <v>0.1000291428511067</v>
+        <v>-0.02569925769493873</v>
       </c>
       <c r="Z6">
-        <v>0.3988224944932836</v>
+        <v>0.4191802010827534</v>
       </c>
       <c r="AA6">
-        <v>0.1388210807289649</v>
+        <v>0.06411944695007339</v>
       </c>
       <c r="AB6">
-        <v>0.04988431728920854</v>
+        <v>0.0378821572730715</v>
       </c>
       <c r="AC6">
-        <v>0.0889367634397564</v>
+        <v>0.0262372896770019</v>
       </c>
       <c r="AD6">
-        <v>69.8</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AE6">
-        <v>6.335777067362897</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>76.13577706736289</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="AG6">
-        <v>76.13577706736289</v>
+        <v>36.7</v>
       </c>
       <c r="AH6">
-        <v>0.2216885431025706</v>
+        <v>0.1608259139988635</v>
       </c>
       <c r="AI6">
-        <v>0.3604303121581685</v>
+        <v>0.4066091954022988</v>
       </c>
       <c r="AJ6">
-        <v>0.2216885431025706</v>
+        <v>0.07650614967688139</v>
       </c>
       <c r="AK6">
-        <v>0.3604303121581685</v>
+        <v>0.2285180572851806</v>
       </c>
       <c r="AL6">
-        <v>3.43</v>
+        <v>3.26</v>
       </c>
       <c r="AM6">
-        <v>3.43</v>
+        <v>2.818</v>
       </c>
       <c r="AN6">
-        <v>2.169049098819142</v>
+        <v>6.431818181818183</v>
       </c>
       <c r="AO6">
-        <v>8.48396501457726</v>
+        <v>3.895705521472393</v>
       </c>
       <c r="AP6">
-        <v>2.365934650943533</v>
+        <v>2.780303030303031</v>
       </c>
       <c r="AQ6">
-        <v>8.48396501457726</v>
+        <v>4.506742370475515</v>
       </c>
     </row>
     <row r="7">
@@ -1246,7 +1252,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CapMan Oyj (HLSE:CAPMAN)</t>
+          <t>Taaleri Oyj (HLSE:TAALA)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1255,46 +1261,46 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.07969999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.479</v>
+        <v>-0.0174</v>
+      </c>
+      <c r="E7">
+        <v>-0.319</v>
       </c>
       <c r="G7">
-        <v>0.1694736842105263</v>
+        <v>0.3328488372093023</v>
       </c>
       <c r="H7">
-        <v>0.1694736842105263</v>
+        <v>0.3328488372093023</v>
       </c>
       <c r="I7">
-        <v>0.2417804964798344</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="J7">
-        <v>0.2091926904325523</v>
+        <v>0.17514033680834</v>
       </c>
       <c r="K7">
-        <v>8.130000000000001</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="L7">
-        <v>0.1711578947368421</v>
+        <v>0.1194767441860465</v>
       </c>
       <c r="M7">
-        <v>20.7</v>
+        <v>5.1</v>
       </c>
       <c r="N7">
-        <v>0.05097266683082984</v>
+        <v>0.01813655761024182</v>
       </c>
       <c r="O7">
-        <v>2.546125461254612</v>
+        <v>0.6204379562043795</v>
       </c>
       <c r="P7">
-        <v>20.7</v>
+        <v>5.1</v>
       </c>
       <c r="Q7">
-        <v>0.05097266683082984</v>
+        <v>0.01813655761024182</v>
       </c>
       <c r="R7">
-        <v>2.546125461254612</v>
+        <v>0.6204379562043795</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1303,73 +1309,73 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>0.1031765574981532</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>0.05673412421493371</v>
+        <v>0.06048565121412804</v>
       </c>
       <c r="X7">
-        <v>0.05361090852357885</v>
+        <v>0.04415988636574809</v>
       </c>
       <c r="Y7">
-        <v>0.003123215691354861</v>
+        <v>0.01632576484837994</v>
       </c>
       <c r="Z7">
-        <v>0.292204958284198</v>
+        <v>0.3441720860430215</v>
       </c>
       <c r="AA7">
-        <v>0.06112714138120311</v>
+        <v>0.06027841506960376</v>
       </c>
       <c r="AB7">
-        <v>0.04989589504400414</v>
+        <v>0.03811553307311122</v>
       </c>
       <c r="AC7">
-        <v>0.01123124633719896</v>
+        <v>0.02216288199649254</v>
       </c>
       <c r="AD7">
-        <v>57.8</v>
+        <v>85.2</v>
       </c>
       <c r="AE7">
-        <v>3.327132086039338</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>61.12713208603934</v>
+        <v>85.2</v>
       </c>
       <c r="AG7">
-        <v>19.22713208603934</v>
+        <v>85.2</v>
       </c>
       <c r="AH7">
-        <v>0.1308295856302772</v>
+        <v>0.2325327510917031</v>
       </c>
       <c r="AI7">
-        <v>0.309461953102288</v>
+        <v>0.3885088919288646</v>
       </c>
       <c r="AJ7">
-        <v>0.04520551508609116</v>
+        <v>0.2325327510917031</v>
       </c>
       <c r="AK7">
-        <v>0.1235461440965802</v>
+        <v>0.3885088919288646</v>
       </c>
       <c r="AL7">
-        <v>2.87</v>
+        <v>3.76</v>
       </c>
       <c r="AM7">
-        <v>2.732</v>
+        <v>3.76</v>
       </c>
       <c r="AN7">
-        <v>4.362264150943396</v>
+        <v>4.391752577319588</v>
       </c>
       <c r="AO7">
-        <v>3.867595818815331</v>
+        <v>5.106382978723405</v>
       </c>
       <c r="AP7">
-        <v>1.451104308380328</v>
+        <v>4.391752577319588</v>
       </c>
       <c r="AQ7">
-        <v>4.062957540263543</v>
+        <v>5.106382978723405</v>
       </c>
     </row>
     <row r="8">
@@ -1380,7 +1386,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Evli Pankki Oyj (HLSE:EVLI)</t>
+          <t>Partnera Oy (HLSE:PARTNE1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1388,116 +1394,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D8">
-        <v>0.0293</v>
-      </c>
-      <c r="E8">
-        <v>0.125</v>
-      </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.09149425287356322</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.09149425287356322</v>
       </c>
       <c r="I8">
-        <v>0.009657098743511013</v>
+        <v>0.006620689655172414</v>
       </c>
       <c r="J8">
-        <v>0.007417771498638893</v>
+        <v>0.003761755485893417</v>
       </c>
       <c r="K8">
-        <v>14.4</v>
+        <v>1.09</v>
       </c>
       <c r="L8">
-        <v>0.1872561768530559</v>
+        <v>0.02505747126436782</v>
       </c>
       <c r="M8">
-        <v>15.909</v>
+        <v>5.7</v>
       </c>
       <c r="N8">
-        <v>0.05797740524781342</v>
+        <v>0.06713780918727914</v>
       </c>
       <c r="O8">
-        <v>1.104791666666667</v>
+        <v>5.229357798165138</v>
       </c>
       <c r="P8">
-        <v>15.8</v>
+        <v>5.7</v>
       </c>
       <c r="Q8">
-        <v>0.05758017492711371</v>
+        <v>0.06713780918727914</v>
       </c>
       <c r="R8">
-        <v>1.097222222222222</v>
+        <v>5.229357798165138</v>
       </c>
       <c r="S8">
-        <v>0.109</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.006851467722672699</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.1802120141342756</v>
       </c>
       <c r="W8">
-        <v>0.1674418604651163</v>
+        <v>0.01330891330891331</v>
       </c>
       <c r="X8">
-        <v>0.06730025215808064</v>
+        <v>0.04306963080479997</v>
       </c>
       <c r="Y8">
-        <v>0.1001416083070356</v>
+        <v>-0.02976071749588666</v>
       </c>
       <c r="Z8">
-        <v>0.2473568795364406</v>
+        <v>0.6144067796610169</v>
       </c>
       <c r="AA8">
-        <v>0.001834836811017663</v>
+        <v>0.002311248073959938</v>
       </c>
       <c r="AB8">
-        <v>0.04985975970927668</v>
+        <v>0.03976791335358942</v>
       </c>
       <c r="AC8">
-        <v>-0.04802492289825902</v>
+        <v>-0.03745666527962948</v>
       </c>
       <c r="AD8">
-        <v>185.9</v>
+        <v>21.6</v>
       </c>
       <c r="AE8">
-        <v>8.286845533120015</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>194.18684553312</v>
+        <v>21.6</v>
       </c>
       <c r="AG8">
-        <v>194.18684553312</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.4144095110313863</v>
+        <v>0.2028169014084507</v>
       </c>
       <c r="AI8">
-        <v>0.703354211455268</v>
+        <v>0.2155688622754491</v>
       </c>
       <c r="AJ8">
-        <v>0.4144095110313863</v>
+        <v>0.06907894736842106</v>
       </c>
       <c r="AK8">
-        <v>0.703354211455268</v>
+        <v>0.07420494699646644</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>-0.9999999999999998</v>
       </c>
       <c r="AN8">
-        <v>77.45833333333334</v>
+        <v>5.581395348837209</v>
+      </c>
+      <c r="AO8">
+        <v>0.2642201834862385</v>
       </c>
       <c r="AP8">
-        <v>80.91118563880001</v>
+        <v>1.627906976744186</v>
+      </c>
+      <c r="AQ8">
+        <v>-0.288</v>
       </c>
     </row>
     <row r="9">
@@ -1508,7 +1514,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>EAB Group Oyj (HLSE:EAB)</t>
+          <t>Evli Pankki Oyj (HLSE:EVLI)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1516,116 +1522,110 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D9">
+        <v>0.0453</v>
+      </c>
+      <c r="E9">
+        <v>0.201</v>
+      </c>
       <c r="G9">
-        <v>0.142073732718894</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.1105990783410138</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.01571428571428572</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>-0.01571428571428572</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>-0.6830000000000001</v>
+        <v>19.7</v>
       </c>
       <c r="L9">
-        <v>-0.03147465437788019</v>
+        <v>0.2254004576659039</v>
       </c>
       <c r="M9">
-        <v>2.39</v>
+        <v>17.8</v>
       </c>
       <c r="N9">
-        <v>0.05545243619489559</v>
+        <v>0.05015497323189631</v>
       </c>
       <c r="O9">
-        <v>-3.499267935578331</v>
+        <v>0.9035532994923858</v>
       </c>
       <c r="P9">
-        <v>-0</v>
+        <v>17.8</v>
       </c>
       <c r="Q9">
-        <v>-0</v>
+        <v>0.05015497323189631</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.9035532994923858</v>
       </c>
       <c r="S9">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.05011600928074246</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>-0.02596958174904943</v>
+        <v>0.2438118811881188</v>
       </c>
       <c r="X9">
-        <v>0.05464985469372591</v>
+        <v>0.05212099929506581</v>
       </c>
       <c r="Y9">
-        <v>-0.08061943644277533</v>
+        <v>0.191690881893053</v>
       </c>
       <c r="Z9">
-        <v>0.6796116504854368</v>
+        <v>0.3277090363704537</v>
       </c>
       <c r="AA9">
-        <v>-0.01067961165048544</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.05066784897109929</v>
+        <v>0.03864994722270634</v>
       </c>
       <c r="AC9">
-        <v>-0.06134746062158473</v>
+        <v>-0.03864994722270634</v>
       </c>
       <c r="AD9">
-        <v>8.31</v>
+        <v>233.4</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>8.31</v>
+        <v>233.4</v>
       </c>
       <c r="AG9">
-        <v>6.15</v>
+        <v>233.4</v>
       </c>
       <c r="AH9">
-        <v>0.1616417039486481</v>
+        <v>0.39673635900051</v>
       </c>
       <c r="AI9">
-        <v>0.2671166827386693</v>
+        <v>0.7032238626092198</v>
       </c>
       <c r="AJ9">
-        <v>0.1248730964467005</v>
+        <v>0.39673635900051</v>
       </c>
       <c r="AK9">
-        <v>0.2124352331606217</v>
+        <v>0.7032238626092198</v>
       </c>
       <c r="AL9">
-        <v>0.455</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>0.341</v>
-      </c>
-      <c r="AN9">
-        <v>14.60456942003515</v>
-      </c>
-      <c r="AO9">
-        <v>-0.7494505494505495</v>
-      </c>
-      <c r="AP9">
-        <v>10.80843585237258</v>
-      </c>
-      <c r="AQ9">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Loudspring Oyj (HLSE:LOUD)</t>
+          <t>EAB Group Oyj (HLSE:EAB)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1644,26 +1644,23 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D10">
-        <v>1.513</v>
-      </c>
       <c r="G10">
-        <v>-8.653846153846155</v>
+        <v>0.01702020202020202</v>
       </c>
       <c r="H10">
-        <v>-8.653846153846155</v>
+        <v>-0.03398989898989899</v>
       </c>
       <c r="I10">
-        <v>-8.125</v>
+        <v>-0.06262626262626263</v>
       </c>
       <c r="J10">
-        <v>-8.125</v>
+        <v>-0.06262626262626263</v>
       </c>
       <c r="K10">
-        <v>-3.47</v>
+        <v>-1.69</v>
       </c>
       <c r="L10">
-        <v>-16.68269230769231</v>
+        <v>-0.08535353535353535</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1687,73 +1684,201 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0.036</v>
+        <v>0.9</v>
       </c>
       <c r="V10">
-        <v>0.003986710963455149</v>
+        <v>0.01317715959004392</v>
       </c>
       <c r="W10">
-        <v>-0.1416326530612245</v>
+        <v>-0.07477876106194689</v>
       </c>
       <c r="X10">
-        <v>0.05981677343474827</v>
+        <v>0.03976118835724182</v>
       </c>
       <c r="Y10">
-        <v>-0.2014494264959727</v>
+        <v>-0.1145399494191887</v>
       </c>
       <c r="Z10">
-        <v>0.008760476772101251</v>
+        <v>0.6886956521739129</v>
       </c>
       <c r="AA10">
-        <v>-0.07117887377332266</v>
+        <v>-0.04313043478260869</v>
       </c>
       <c r="AB10">
-        <v>0.05212833331748109</v>
+        <v>0.03818386236369945</v>
       </c>
       <c r="AC10">
-        <v>-0.1233072070908038</v>
+        <v>-0.08131429714630814</v>
       </c>
       <c r="AD10">
-        <v>3.64</v>
+        <v>7.31</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>3.64</v>
+        <v>7.31</v>
       </c>
       <c r="AG10">
-        <v>3.604</v>
+        <v>6.409999999999999</v>
       </c>
       <c r="AH10">
-        <v>0.287292817679558</v>
+        <v>0.09668033328924745</v>
       </c>
       <c r="AI10">
-        <v>0.2486338797814208</v>
+        <v>0.2609782220635488</v>
       </c>
       <c r="AJ10">
-        <v>0.2852619914516384</v>
+        <v>0.08579842055949671</v>
       </c>
       <c r="AK10">
-        <v>0.2467817036428376</v>
+        <v>0.2364441165621542</v>
       </c>
       <c r="AL10">
-        <v>2.03</v>
+        <v>0.45</v>
       </c>
       <c r="AM10">
-        <v>1.782</v>
+        <v>0.337</v>
       </c>
       <c r="AN10">
-        <v>-2.45945945945946</v>
+        <v>-12.98401420959148</v>
       </c>
       <c r="AO10">
-        <v>-0.8325123152709361</v>
+        <v>-2.755555555555556</v>
       </c>
       <c r="AP10">
-        <v>-2.435135135135135</v>
+        <v>-11.3854351687389</v>
       </c>
       <c r="AQ10">
-        <v>-0.9483726150392818</v>
+        <v>-3.679525222551928</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Loudspring Oyj (HLSE:LOUD)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Investments &amp; Asset Management</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>-0.0674</v>
+      </c>
+      <c r="G11">
+        <v>-5.129032258064516</v>
+      </c>
+      <c r="H11">
+        <v>-5.129032258064516</v>
+      </c>
+      <c r="I11">
+        <v>-4.672043010752688</v>
+      </c>
+      <c r="J11">
+        <v>-4.672043010752688</v>
+      </c>
+      <c r="K11">
+        <v>-4.53</v>
+      </c>
+      <c r="L11">
+        <v>-24.35483870967742</v>
+      </c>
+      <c r="M11">
+        <v>-0</v>
+      </c>
+      <c r="N11">
+        <v>-0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>-0</v>
+      </c>
+      <c r="Q11">
+        <v>-0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.6889999999999999</v>
+      </c>
+      <c r="V11">
+        <v>0.02894957983193277</v>
+      </c>
+      <c r="W11">
+        <v>-0.4118181818181819</v>
+      </c>
+      <c r="X11">
+        <v>0.04192358594662537</v>
+      </c>
+      <c r="Y11">
+        <v>-0.4537417677648072</v>
+      </c>
+      <c r="Z11">
+        <v>0.01273623664749384</v>
+      </c>
+      <c r="AA11">
+        <v>-0.05950424541221583</v>
+      </c>
+      <c r="AB11">
+        <v>0.0388010328291453</v>
+      </c>
+      <c r="AC11">
+        <v>-0.09830527824136112</v>
+      </c>
+      <c r="AD11">
+        <v>4.84</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>4.84</v>
+      </c>
+      <c r="AG11">
+        <v>4.151</v>
+      </c>
+      <c r="AH11">
+        <v>0.1689944134078212</v>
+      </c>
+      <c r="AI11">
+        <v>0.3625468164794007</v>
+      </c>
+      <c r="AJ11">
+        <v>0.1485098923115452</v>
+      </c>
+      <c r="AK11">
+        <v>0.3278571992733592</v>
+      </c>
+      <c r="AL11">
+        <v>0.192</v>
+      </c>
+      <c r="AM11">
+        <v>0.146</v>
+      </c>
+      <c r="AN11">
+        <v>-5.62137049941928</v>
+      </c>
+      <c r="AO11">
+        <v>-4.526041666666667</v>
+      </c>
+      <c r="AP11">
+        <v>-4.821138211382114</v>
+      </c>
+      <c r="AQ11">
+        <v>-5.952054794520548</v>
       </c>
     </row>
   </sheetData>
